--- a/data/trans_orig/P1435-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>21969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14034</v>
+        <v>14948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31523</v>
+        <v>33410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07163394083402105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04576098610724165</v>
+        <v>0.04874296586223039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1027874509909728</v>
+        <v>0.1089403223905602</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>284711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275157</v>
+        <v>273270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292646</v>
+        <v>291732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9283660591659789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8972125490090275</v>
+        <v>0.8910596776094396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9542390138927583</v>
+        <v>0.9512570341377696</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>50375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39021</v>
+        <v>38410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64012</v>
+        <v>66100</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1354662045968186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1049337300842351</v>
+        <v>0.1032902820780496</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1721374986603095</v>
+        <v>0.1777519266982277</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>321490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>307853</v>
+        <v>305765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332844</v>
+        <v>333455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8645337954031814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8278625013396904</v>
+        <v>0.8222480733017723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8950662699157648</v>
+        <v>0.8967097179219503</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>15669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9169</v>
+        <v>8739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24759</v>
+        <v>24163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09339002044750647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05464801049920578</v>
+        <v>0.05208594230394711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1475661208707868</v>
+        <v>0.1440114954081139</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>152113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143023</v>
+        <v>143619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158613</v>
+        <v>159043</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9066099795524936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8524338791292132</v>
+        <v>0.8559885045918859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9453519895007941</v>
+        <v>0.9479140576960529</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>69057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54645</v>
+        <v>54279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86012</v>
+        <v>86183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09668039655134253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07650300614627319</v>
+        <v>0.07599003446842752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1204165456989297</v>
+        <v>0.1206566078628025</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>645228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>628273</v>
+        <v>628102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>659640</v>
+        <v>660006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9033196034486575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8795834543010703</v>
+        <v>0.8793433921371975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9234969938537269</v>
+        <v>0.9240099655315727</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>27599</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18012</v>
+        <v>18992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40025</v>
+        <v>39855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04852634704669163</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03166918086127574</v>
+        <v>0.03339230290878661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07037315187964516</v>
+        <v>0.07007420950248784</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>541153</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>528727</v>
+        <v>528897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>550740</v>
+        <v>549760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9514736529533083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9296268481203549</v>
+        <v>0.9299257904975122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9683308191387242</v>
+        <v>0.9666076970912134</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>75476</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59727</v>
+        <v>59649</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92398</v>
+        <v>92683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06044098620395667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04782926886963297</v>
+        <v>0.04776684977798272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07399199428071412</v>
+        <v>0.07422009629903098</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>1173284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1156362</v>
+        <v>1156077</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1189033</v>
+        <v>1189111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9395590137960433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9260080057192858</v>
+        <v>0.9257799037009686</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9521707311303669</v>
+        <v>0.9522331502220172</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>260146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>230454</v>
+        <v>231664</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>290848</v>
+        <v>291769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0770090468877301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06821960465425844</v>
+        <v>0.0685776755756065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08609748609637909</v>
+        <v>0.08637026500764422</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>3117978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3087276</v>
+        <v>3086355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3147670</v>
+        <v>3146460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9229909531122699</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.913902513903621</v>
+        <v>0.9136297349923559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9317803953457416</v>
+        <v>0.9314223244243935</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>14311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8080</v>
+        <v>7465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23828</v>
+        <v>23171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04551191183331494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02569592837988179</v>
+        <v>0.02373953295907485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07577447816519518</v>
+        <v>0.07368579197778029</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>300143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290626</v>
+        <v>291283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306374</v>
+        <v>306989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9544880881666851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9242255218348048</v>
+        <v>0.9263142080222196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9743040716201181</v>
+        <v>0.976260467040925</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>16722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9967</v>
+        <v>10524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25579</v>
+        <v>25614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04947067366446305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02948586954436759</v>
+        <v>0.03113551917576356</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07567443398379242</v>
+        <v>0.07577904406322392</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>321289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312432</v>
+        <v>312397</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328044</v>
+        <v>327487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950529326335537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9243255660162073</v>
+        <v>0.9242209559367761</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9705141304556324</v>
+        <v>0.9688644808242367</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>9075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4058</v>
+        <v>4018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17995</v>
+        <v>17221</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03488547010869442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01560176428183937</v>
+        <v>0.01544503295103294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06917849561372556</v>
+        <v>0.06620306444097594</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>251054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242134</v>
+        <v>242908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>256071</v>
+        <v>256111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9651145298913055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9308215043862745</v>
+        <v>0.933796935559024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9843982357181607</v>
+        <v>0.9845549670489671</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>37156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25964</v>
+        <v>27581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51886</v>
+        <v>52878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04858731165056136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03395174630965944</v>
+        <v>0.03606669394053282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06784979036328198</v>
+        <v>0.06914727330194567</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>727566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>712836</v>
+        <v>711844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>738758</v>
+        <v>737141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9514126883494386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9321502096367179</v>
+        <v>0.9308527266980542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9660482536903404</v>
+        <v>0.9639333060594671</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>21793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13207</v>
+        <v>13829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32275</v>
+        <v>32283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02866527212296192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0173725475221679</v>
+        <v>0.01819068779976191</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04245401272610349</v>
+        <v>0.04246423145495849</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>738453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>727971</v>
+        <v>727963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>747039</v>
+        <v>746417</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9713347278770381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9575459872738959</v>
+        <v>0.9575357685450419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.982627452477832</v>
+        <v>0.9818093122002383</v>
       </c>
     </row>
     <row r="18">
@@ -1836,19 +1836,19 @@
         <v>38353</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27941</v>
+        <v>27068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52147</v>
+        <v>52391</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03457263180190522</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02518664329325146</v>
+        <v>0.02439947481298885</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04700705750314885</v>
+        <v>0.04722672909281008</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>1070998</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1057204</v>
+        <v>1056960</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1081410</v>
+        <v>1082283</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9654273681980948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9529929424968512</v>
+        <v>0.9527732709071899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9748133567067485</v>
+        <v>0.9756005251870111</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>137409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116186</v>
+        <v>115438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163691</v>
+        <v>161532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03874055635245977</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03275700547974533</v>
+        <v>0.03254595088430804</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04615030128942249</v>
+        <v>0.04554167207205014</v>
       </c>
     </row>
     <row r="23">
@@ -1956,19 +1956,19 @@
         <v>3409506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3383224</v>
+        <v>3385383</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3430729</v>
+        <v>3431477</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9612594436475402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9538496987105773</v>
+        <v>0.9544583279279495</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9672429945202546</v>
+        <v>0.967454049115692</v>
       </c>
     </row>
     <row r="24">
@@ -2138,19 +2138,19 @@
         <v>11977</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6283</v>
+        <v>6447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19823</v>
+        <v>20361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03450896604268322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01810399999553967</v>
+        <v>0.01857515820622476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05711907766405851</v>
+        <v>0.05866858773765225</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2167,19 @@
         <v>335078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327232</v>
+        <v>326694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>340772</v>
+        <v>340608</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9654910339573167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9428809223359418</v>
+        <v>0.9413314122623481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9818960000044605</v>
+        <v>0.9814248417937753</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>13772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7862</v>
+        <v>7860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22403</v>
+        <v>22449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03699414656862632</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02111890167709621</v>
+        <v>0.02111321065658022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06017990565706634</v>
+        <v>0.06030215474893961</v>
       </c>
     </row>
     <row r="8">
@@ -2258,19 +2258,19 @@
         <v>358501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>349870</v>
+        <v>349824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364411</v>
+        <v>364413</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9630058534313737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9398200943429337</v>
+        <v>0.9396978452510604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9788810983229038</v>
+        <v>0.9788867893434198</v>
       </c>
     </row>
     <row r="9">
@@ -2320,19 +2320,19 @@
         <v>3953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9484</v>
+        <v>9873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02379736125452545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005887902178791296</v>
+        <v>0.005688922036827648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05709288575854401</v>
+        <v>0.05943372131847943</v>
       </c>
     </row>
     <row r="11">
@@ -2349,19 +2349,19 @@
         <v>162170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156639</v>
+        <v>156250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165145</v>
+        <v>165178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9762026387454745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.942907114241456</v>
+        <v>0.9405662786815207</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941120978212087</v>
+        <v>0.9943110779631723</v>
       </c>
     </row>
     <row r="12">
@@ -2411,19 +2411,19 @@
         <v>9502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4789</v>
+        <v>4767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17789</v>
+        <v>17085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01150499480149744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005798494974582918</v>
+        <v>0.00577171924892569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02153919169229421</v>
+        <v>0.02068769187803397</v>
       </c>
     </row>
     <row r="14">
@@ -2440,19 +2440,19 @@
         <v>816374</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>808087</v>
+        <v>808791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>821087</v>
+        <v>821109</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9884950051985025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.978460808307706</v>
+        <v>0.9793123081219663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9942015050254172</v>
+        <v>0.9942282807510743</v>
       </c>
     </row>
     <row r="15">
@@ -2502,19 +2502,19 @@
         <v>15666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9209</v>
+        <v>9215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24890</v>
+        <v>25451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02122046994474789</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01247396544802428</v>
+        <v>0.01248183430980613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03371488961980438</v>
+        <v>0.03447500622768274</v>
       </c>
     </row>
     <row r="17">
@@ -2531,19 +2531,19 @@
         <v>722578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>713354</v>
+        <v>712793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>729035</v>
+        <v>729029</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9787795300552521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9662851103801953</v>
+        <v>0.9655249937723169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9875260345519756</v>
+        <v>0.9875181656901937</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2593,19 @@
         <v>11519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5776</v>
+        <v>6012</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20069</v>
+        <v>20494</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01064547579273889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00533839980584802</v>
+        <v>0.00555598893677968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01854757020443227</v>
+        <v>0.01894021507324721</v>
       </c>
     </row>
     <row r="20">
@@ -2622,19 +2622,19 @@
         <v>1070506</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1061956</v>
+        <v>1061531</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1076249</v>
+        <v>1076013</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9893545242072611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9814524297955677</v>
+        <v>0.9810597849267527</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994661600194152</v>
+        <v>0.9944440110632202</v>
       </c>
     </row>
     <row r="21">
@@ -2684,19 +2684,19 @@
         <v>66388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52141</v>
+        <v>52054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84177</v>
+        <v>83033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01879829480919333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01476406819520021</v>
+        <v>0.01473941943571943</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02383543227784315</v>
+        <v>0.02351152287377464</v>
       </c>
     </row>
     <row r="23">
@@ -2713,19 +2713,19 @@
         <v>3465208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3447419</v>
+        <v>3448563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3479455</v>
+        <v>3479542</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9812017051908066</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9761645677221569</v>
+        <v>0.9764884771262253</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9852359318047998</v>
+        <v>0.9852605805642806</v>
       </c>
     </row>
     <row r="24">
@@ -2895,19 +2895,19 @@
         <v>42805</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32497</v>
+        <v>30462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56178</v>
+        <v>56415</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08791931127349366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06674719481119919</v>
+        <v>0.06256712899889602</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1153878283390512</v>
+        <v>0.1158739712133148</v>
       </c>
     </row>
     <row r="5">
@@ -2924,19 +2924,19 @@
         <v>444058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430685</v>
+        <v>430448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>454366</v>
+        <v>456401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9120806887265064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8846121716609486</v>
+        <v>0.8841260287866852</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9332528051888008</v>
+        <v>0.9374328710011041</v>
       </c>
     </row>
     <row r="6">
@@ -2986,19 +2986,19 @@
         <v>32650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23516</v>
+        <v>23505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44109</v>
+        <v>45663</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07753563589663891</v>
+        <v>0.07753563589663892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05584416262815417</v>
+        <v>0.05581889561651996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1047480710645111</v>
+        <v>0.1084401534645497</v>
       </c>
     </row>
     <row r="8">
@@ -3015,19 +3015,19 @@
         <v>388444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>376985</v>
+        <v>375431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397578</v>
+        <v>397589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9224643641033611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8952519289354888</v>
+        <v>0.8915598465354502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9441558373718456</v>
+        <v>0.9441811043834799</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>8766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4881</v>
+        <v>4290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15831</v>
+        <v>16516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04675471430116222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02603115055823846</v>
+        <v>0.02288000046920412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08443381597048871</v>
+        <v>0.08808596429931517</v>
       </c>
     </row>
     <row r="11">
@@ -3106,19 +3106,19 @@
         <v>178731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171666</v>
+        <v>170981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182616</v>
+        <v>183207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9532452856988377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.915566184029511</v>
+        <v>0.9119140357006847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9739688494417615</v>
+        <v>0.9771199995307956</v>
       </c>
     </row>
     <row r="12">
@@ -3168,19 +3168,19 @@
         <v>67143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54177</v>
+        <v>53115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85661</v>
+        <v>82643</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0783272513590394</v>
+        <v>0.07832725135903941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06320142860403019</v>
+        <v>0.06196287958806881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09993110381636951</v>
+        <v>0.09640953181377752</v>
       </c>
     </row>
     <row r="14">
@@ -3197,19 +3197,19 @@
         <v>790062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>771544</v>
+        <v>774562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>803028</v>
+        <v>804090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9216727486409605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000688961836307</v>
+        <v>0.9035904681862222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9367985713959701</v>
+        <v>0.9380371204119309</v>
       </c>
     </row>
     <row r="15">
@@ -3259,19 +3259,19 @@
         <v>42222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32372</v>
+        <v>31236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54804</v>
+        <v>53722</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0509555338996865</v>
+        <v>0.05095553389968651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03906750307982031</v>
+        <v>0.03769632787081083</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06613909721301202</v>
+        <v>0.06483346818364948</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>786391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>773809</v>
+        <v>774891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>796241</v>
+        <v>797377</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9490444661003133</v>
+        <v>0.9490444661003135</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.933860902786988</v>
+        <v>0.9351665318163511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9609324969201801</v>
+        <v>0.9623036721291893</v>
       </c>
     </row>
     <row r="18">
@@ -3350,19 +3350,19 @@
         <v>26937</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15583</v>
+        <v>14911</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46070</v>
+        <v>45127</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03193165422025333</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01847259459790134</v>
+        <v>0.0176749717720019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05461188620499512</v>
+        <v>0.05349334867206004</v>
       </c>
     </row>
     <row r="20">
@@ -3379,19 +3379,19 @@
         <v>816659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>797526</v>
+        <v>798469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>828013</v>
+        <v>828685</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9680683457797467</v>
+        <v>0.9680683457797468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9453881137950058</v>
+        <v>0.94650665132794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9815274054020987</v>
+        <v>0.9823250282279981</v>
       </c>
     </row>
     <row r="21">
@@ -3441,19 +3441,19 @@
         <v>220523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191122</v>
+        <v>193743</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>250282</v>
+        <v>249758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06083618749291386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05272521568595091</v>
+        <v>0.05344819550736772</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06904569081857388</v>
+        <v>0.06890118524512712</v>
       </c>
     </row>
     <row r="23">
@@ -3470,19 +3470,19 @@
         <v>3404345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3374586</v>
+        <v>3375110</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3433746</v>
+        <v>3431125</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9391638125070861</v>
+        <v>0.9391638125070862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9309543091814259</v>
+        <v>0.9310988147548729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9472747843140484</v>
+        <v>0.9465518044926322</v>
       </c>
     </row>
     <row r="24">
